--- a/data/data_lab_5.xlsx
+++ b/data/data_lab_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danila.lipatov\PycharmProjects\todo_list_django\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilalipatov/Filtering-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AB1826-228E-48F2-87FB-E23EC8C193CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467E8296-4882-3540-A7CD-3FA4356AA4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19530" windowHeight="8430" xr2:uid="{5CB5AB15-50A1-4A54-89EE-B21A779EC572}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19540" windowHeight="16340" xr2:uid="{5CB5AB15-50A1-4A54-89EE-B21A779EC572}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -3356,12 +3356,12 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>138</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>141</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>142</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>146</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>150</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>154</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>155</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>156</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>157</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>158</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>159</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>160</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>161</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>162</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>163</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>164</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>166</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>167</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>168</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>169</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>170</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>171</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>172</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>173</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>174</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>175</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>176</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>179</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>185</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>186</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>189</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>190</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>191</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>192</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>193</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>194</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>195</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>196</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>197</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>198</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>199</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>200</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>201</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>202</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>204</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>205</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>206</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>207</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>208</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>209</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>210</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>213</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>214</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>216</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>217</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>218</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>219</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>220</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>221</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>222</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>223</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>224</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>225</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>226</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>227</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>228</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>229</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>230</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>231</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>232</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>233</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>234</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>235</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>237</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>238</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>240</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>241</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>242</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>243</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>244</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>245</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>246</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>247</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>248</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>249</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>250</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>251</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>252</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>253</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>255</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>256</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>257</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>259</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>260</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>261</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>262</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>263</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>264</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>265</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>266</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>268</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>269</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>270</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>271</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>272</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>273</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>274</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>275</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>276</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>277</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>278</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>280</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>281</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>282</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>283</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>284</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>285</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>286</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>287</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>288</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>289</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>290</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>292</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>294</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>295</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>296</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>297</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>298</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>299</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>300</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>301</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>302</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>304</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>305</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>306</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>308</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>309</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>311</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>312</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>313</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>314</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>315</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>316</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>317</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>318</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>319</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>320</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>321</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>322</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>324</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>325</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>326</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>327</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>328</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>329</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>330</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>331</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>332</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>333</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>335</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>336</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>337</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>338</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>339</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>340</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>341</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>343</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>345</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>347</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>349</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>350</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>351</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>352</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>353</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>354</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>355</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>356</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>357</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>358</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>359</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>360</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>361</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>362</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>363</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>364</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>365</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>366</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>367</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>368</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>369</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>370</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>372</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>373</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>374</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>375</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>376</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>377</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>378</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>379</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>380</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>381</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>382</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>383</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>384</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>385</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>386</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>387</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>388</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>389</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>390</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>391</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>392</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>393</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>394</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>395</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>396</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>397</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>399</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>400</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>401</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>402</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>403</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>404</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>405</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>406</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>407</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>408</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>410</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>411</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>412</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>413</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>414</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>415</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>416</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>417</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>418</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>419</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>420</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>421</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>422</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>423</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>424</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>425</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>426</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>427</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>428</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>429</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>430</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>431</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>432</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>433</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>434</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>435</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>436</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>437</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>438</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>439</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>440</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>441</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>442</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>443</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>444</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>445</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>446</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>447</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>448</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>449</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>450</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>451</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>453</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>455</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>456</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>457</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>459</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>461</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>463</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>465</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>467</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>468</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>469</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>470</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>471</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>472</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>473</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>474</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>475</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>476</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>477</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>478</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>479</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>480</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>481</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>482</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>483</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>484</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>485</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>486</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>487</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>488</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>489</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>490</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>491</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>492</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>493</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>494</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>495</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>496</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>497</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>498</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>499</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>500</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>501</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>502</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>503</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>504</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>505</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>506</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>507</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>508</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>509</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>510</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>511</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>512</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>513</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>514</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>515</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>516</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>517</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>518</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>519</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>520</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>521</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>522</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>523</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>524</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>525</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>526</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>527</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>528</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>529</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>530</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>531</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>532</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>533</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>534</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>535</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>536</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>537</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>538</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>539</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>540</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>541</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>542</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>543</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>544</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>545</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>546</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>547</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>548</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>549</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>550</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>551</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>552</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>553</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>554</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>555</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>556</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>557</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>558</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>559</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>560</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>561</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>562</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>563</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>564</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>565</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>566</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>567</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>568</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>569</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>570</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>571</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>572</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>574</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>575</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>577</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>578</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>579</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>580</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>581</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>582</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>583</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>584</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>585</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>586</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>587</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>588</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>589</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>590</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>591</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>592</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>593</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>594</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>595</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>596</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>597</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>598</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>599</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>600</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>601</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>602</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>603</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>604</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>605</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>606</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>607</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>608</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>609</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>610</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>611</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>612</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>613</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>614</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>615</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>616</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>617</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>618</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>619</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>620</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>621</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>622</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>623</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>624</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>625</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>626</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>627</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>628</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>629</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>630</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>631</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>632</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>633</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>634</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>635</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>636</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>637</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>638</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>639</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>640</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>641</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>642</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>643</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>644</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>645</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>646</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>647</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>649</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>650</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>651</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>652</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>653</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>654</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>655</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>656</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>657</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>658</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>659</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>660</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>661</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>662</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>663</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>664</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>665</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>666</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>667</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>668</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>669</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>670</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>671</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>672</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>673</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>674</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>675</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>676</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>677</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>678</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>679</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>680</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>681</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>682</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>683</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>684</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>685</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>686</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>687</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>688</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>689</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>690</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>691</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>692</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>693</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>694</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>695</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>696</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>697</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>698</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>699</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>700</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>701</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>702</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>703</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>704</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>705</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>706</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>707</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>708</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>709</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>710</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>711</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>712</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>713</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>714</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>715</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>716</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>717</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>718</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>719</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>720</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>721</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>722</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>723</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>724</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>725</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>726</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>727</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>728</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>729</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>730</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>731</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>732</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>734</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>735</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>736</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>737</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>738</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>739</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>740</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>741</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>742</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>743</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>744</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>745</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>746</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>747</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>748</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>749</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>750</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>751</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>752</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>753</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>754</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>755</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>756</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>757</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>758</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>759</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>760</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>761</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>762</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>763</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>764</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>765</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>766</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>767</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>768</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>769</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>771</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>772</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>773</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>774</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>775</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>776</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>777</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>778</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>779</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>780</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>781</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>782</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>783</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>784</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>785</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>786</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>787</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>788</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>789</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>790</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>791</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>792</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>793</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>794</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>795</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>796</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>797</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>798</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>799</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>800</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>801</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>803</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>804</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>805</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>807</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>808</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>810</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>812</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>813</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>814</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>815</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>816</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>817</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>818</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>819</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>820</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>822</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>823</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>824</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>825</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>826</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>827</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>828</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>829</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>830</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>831</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>832</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>833</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>834</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>835</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>836</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>837</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>838</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>839</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>840</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>841</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>842</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>843</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>844</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>845</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>846</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>847</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>848</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>849</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>850</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>851</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>852</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>853</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>854</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>855</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>856</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>857</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>858</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>859</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>860</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>861</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>862</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>863</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>864</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>865</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>866</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>868</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>869</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>870</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>871</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>873</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>875</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>876</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>877</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>878</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>879</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>880</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>881</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>882</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>883</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>884</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>885</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>886</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>887</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>888</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>889</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>890</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>891</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>892</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>893</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>894</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>895</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>896</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>897</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>898</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>899</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>900</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>901</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>902</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>903</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>904</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>905</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>906</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>907</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>908</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>909</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>910</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>911</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>912</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>913</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>914</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>915</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>916</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>917</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>918</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>919</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>920</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>921</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>922</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>923</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>924</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>925</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>926</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>927</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>928</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>929</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>930</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>931</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>932</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>933</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>934</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>935</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>936</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>937</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>938</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>939</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>940</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>941</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>942</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>943</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>944</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>945</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>946</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>947</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>948</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>949</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>950</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>951</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>952</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>953</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>954</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>955</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>956</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>957</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>958</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>959</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>960</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>961</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>962</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>963</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>964</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>965</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>966</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>967</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>968</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>969</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>970</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>971</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>972</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>973</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>974</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>975</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>976</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>977</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>978</v>
       </c>
@@ -13132,7 +13132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
